--- a/biology/Zoologie/Euploea_helcita/Euploea_helcita.xlsx
+++ b/biology/Zoologie/Euploea_helcita/Euploea_helcita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea helcita est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre  Euploea, endémique de Nouvelle-Calédonie.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea algea helcita puis Euploea helcita a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1852[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea algea helcita puis Euploea helcita a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1852.
 </t>
         </is>
       </c>
@@ -542,11 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon marron plus ou moins foncé orné de petites taches claires formant une ligne submarginale doublée d'une seconde ligne aux postérieures et à l'apex des antérieures. Le revers est semblable.
-Chenille
-Elle est blanchâtre avec une large bande verte sur le dos[2].
 </t>
         </is>
       </c>
@@ -572,13 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Apocynaceae[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est blanchâtre avec une large bande verte sur le dos.
 </t>
         </is>
       </c>
@@ -604,16 +623,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Apocynaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea helcita n'est présent qu'en Nouvelle-Calédonie aux iles Loyauté et à l'ile des pins[1],[3].
-Biotope
-Il réside dans les jardins et en lisière de forêt[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea helcita n'est présent qu'en Nouvelle-Calédonie aux iles Loyauté et à l'ile des pins,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les jardins et en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_helcita</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
